--- a/CasosEmbarazoAdolescente.xlsx
+++ b/CasosEmbarazoAdolescente.xlsx
@@ -12,7 +12,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="XaxNQh9UXrmG9k1bmIf5RcC0FgImsWHqux/DUKldxSg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="6TJ5lLv9U2N8RfmbqQpyikw0AhmDblyP5RhneBLauHY="/>
     </ext>
   </extLst>
 </workbook>
@@ -45,7 +45,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Total Adolescentes</t>
+    <t>&lt; 19</t>
   </si>
   <si>
     <t>Nuevo &lt; 5</t>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -69,6 +69,12 @@
       <b/>
       <sz val="10.0"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -154,20 +160,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -263,7 +275,7 @@
     <tableColumn name="35-49" id="6"/>
     <tableColumn name="50+" id="7"/>
     <tableColumn name="Total" id="8"/>
-    <tableColumn name="Total Adolescentes" id="9"/>
+    <tableColumn name="&lt; 19" id="9"/>
   </tableColumns>
   <tableStyleInfo name="EMBARAZO-C-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -280,7 +292,7 @@
     <tableColumn name="35-49" id="6"/>
     <tableColumn name="50+" id="7"/>
     <tableColumn name="Total" id="8"/>
-    <tableColumn name="Total Adolescentes" id="9"/>
+    <tableColumn name="&lt; 19" id="9"/>
   </tableColumns>
   <tableStyleInfo name="EMBARAZO-G-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -297,7 +309,7 @@
     <tableColumn name="35-49" id="6"/>
     <tableColumn name="50+" id="7"/>
     <tableColumn name="Total" id="8"/>
-    <tableColumn name="Total Adolescentes" id="9"/>
+    <tableColumn name="&lt; 19" id="9"/>
   </tableColumns>
   <tableStyleInfo name="EMBARAZO-PC-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -314,7 +326,7 @@
     <tableColumn name="35-49" id="6"/>
     <tableColumn name="50+" id="7"/>
     <tableColumn name="Total" id="8"/>
-    <tableColumn name="Total Adolescentes" id="9"/>
+    <tableColumn name="&lt; 19" id="9"/>
   </tableColumns>
   <tableStyleInfo name="EMBARAZO-SC-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -524,7 +536,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col customWidth="1" min="1" max="24" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -534,10 +546,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -549,7 +561,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -585,7 +597,7 @@
         <f t="shared" ref="H2:H11" si="1">SUM(C2:G2)</f>
         <v>718</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <f t="shared" ref="I2:I11" si="2">C2+D2</f>
         <v>137</v>
       </c>
@@ -619,7 +631,7 @@
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
@@ -653,7 +665,7 @@
         <f t="shared" si="1"/>
         <v>491</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
@@ -687,7 +699,7 @@
         <f t="shared" si="1"/>
         <v>206</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
@@ -721,7 +733,7 @@
         <f t="shared" si="1"/>
         <v>591</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
@@ -755,7 +767,7 @@
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
@@ -788,7 +800,7 @@
         <f t="shared" si="1"/>
         <v>642</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
@@ -822,7 +834,7 @@
         <f t="shared" si="1"/>
         <v>169</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
@@ -855,7 +867,7 @@
         <f t="shared" si="1"/>
         <v>532</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
@@ -889,7 +901,7 @@
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -1927,15 +1939,15 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
@@ -1955,20 +1967,20 @@
       <c r="G2" s="5">
         <v>0.0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <f t="shared" ref="H2:H11" si="1">SUM(C2:G2)</f>
         <v>189</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <f t="shared" ref="I2:I11" si="2">C2+D2</f>
         <v>64</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2019.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5">
@@ -1989,20 +2001,20 @@
       <c r="G3" s="5">
         <v>0.0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5">
@@ -2024,20 +2036,20 @@
       <c r="G4" s="5">
         <v>0.0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>2020.0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5">
@@ -2058,20 +2070,20 @@
       <c r="G5" s="5">
         <v>0.0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>2021.0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5">
@@ -2092,20 +2104,20 @@
       <c r="G6" s="5">
         <v>0.0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>2021.0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5">
@@ -2127,20 +2139,20 @@
       <c r="G7" s="5">
         <v>0.0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5">
@@ -2162,20 +2174,20 @@
       <c r="G8" s="5">
         <v>0.0</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="9">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>2022.0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5">
@@ -2196,20 +2208,20 @@
       <c r="G9" s="5">
         <v>0.0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>2023.0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5">
@@ -2229,20 +2241,20 @@
       <c r="G10" s="5">
         <v>0.0</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>217</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>2023.0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5">
@@ -2264,11 +2276,11 @@
       <c r="G11" s="5">
         <v>0.0</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -3306,15 +3318,15 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
@@ -3336,20 +3348,20 @@
       <c r="G2" s="5">
         <v>0.0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <f t="shared" ref="H2:H11" si="1">SUM(C2:G2)</f>
         <v>2170</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <f t="shared" ref="I2:I11" si="2">C2+D2</f>
         <v>531</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2019.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5">
@@ -3370,20 +3382,20 @@
       <c r="G3" s="5">
         <v>1.0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <f t="shared" si="1"/>
         <v>819</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5">
@@ -3405,20 +3417,20 @@
       <c r="G4" s="5">
         <v>0.0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>1748</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <f t="shared" si="2"/>
         <v>422</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>2020.0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5">
@@ -3441,20 +3453,20 @@
         <f>1+0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <f t="shared" si="1"/>
         <v>792</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>2021.0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5">
@@ -3475,20 +3487,20 @@
       <c r="G6" s="5">
         <v>0.0</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>1803</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <f t="shared" si="2"/>
         <v>391</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>2021.0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5">
@@ -3510,20 +3522,20 @@
       <c r="G7" s="5">
         <v>0.0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>688</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5">
@@ -3545,20 +3557,20 @@
       <c r="G8" s="5">
         <v>0.0</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>1867</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="9">
         <f t="shared" si="2"/>
         <v>357</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>2022.0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5">
@@ -3581,20 +3593,20 @@
         <f>1+0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>684</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>2023.0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5">
@@ -3617,20 +3629,20 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>1728</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>2023.0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5">
@@ -3653,11 +3665,11 @@
         <f>1+0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>711</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
@@ -4695,15 +4707,15 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="6">
+      <c r="A2" s="8">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="5">
@@ -4726,20 +4738,20 @@
         <f>29+4</f>
         <v>33</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="8">
         <f t="shared" ref="H2:H11" si="1">SUM(C2:G2)</f>
         <v>56800</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="9">
         <f t="shared" ref="I2:I11" si="2">C2+D2</f>
         <v>11157</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <v>2019.0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5">
@@ -4762,20 +4774,20 @@
         <f>35+2</f>
         <v>37</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <f t="shared" si="1"/>
         <v>33163</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="9">
         <f t="shared" si="2"/>
         <v>6168</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>2020.0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="5">
@@ -4798,20 +4810,20 @@
         <f>30+2</f>
         <v>32</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="10">
         <f t="shared" si="1"/>
         <v>45174</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="9">
         <f t="shared" si="2"/>
         <v>8586</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="6">
+      <c r="A5" s="8">
         <v>2020.0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="5">
@@ -4834,20 +4846,20 @@
         <f>30+0</f>
         <v>30</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <f t="shared" si="1"/>
         <v>29623</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="9">
         <f t="shared" si="2"/>
         <v>5216</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>2021.0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5">
@@ -4870,20 +4882,20 @@
         <f>38+1</f>
         <v>39</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>53532</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <f t="shared" si="2"/>
         <v>9394</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>2021.0</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5">
@@ -4906,20 +4918,20 @@
         <f>18+1</f>
         <v>19</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="10">
         <f t="shared" si="1"/>
         <v>29830</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="9">
         <f t="shared" si="2"/>
         <v>5789</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>2022.0</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5">
@@ -4942,20 +4954,20 @@
         <f>64+20</f>
         <v>84</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>50901</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="9">
         <f t="shared" si="2"/>
         <v>8195</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="8">
         <v>2022.0</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="5">
@@ -4978,20 +4990,20 @@
         <f>4+2</f>
         <v>6</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>28296</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="9">
         <f t="shared" si="2"/>
         <v>4986</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>2023.0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5">
@@ -5014,20 +5026,20 @@
         <f>76+10</f>
         <v>86</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>48360</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <f t="shared" si="2"/>
         <v>7820</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>2023.0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5">
@@ -5050,11 +5062,11 @@
         <f>39+26</f>
         <v>65</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>27649</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <f t="shared" si="2"/>
         <v>4710</v>
       </c>
